--- a/root/files/icjia/excel/AttachmentA/SFS/SFS SFY 2020.xlsx
+++ b/root/files/icjia/excel/AttachmentA/SFS/SFS SFY 2020.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="480" yWindow="45" windowWidth="19440" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="062019 AA" sheetId="4" r:id="rId1"/>
+    <sheet name="SFS SFY20 AA" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Location</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>Children's Home + Aid Society of Illinois</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Anticipated Appropriation</t>
   </si>
   <si>
     <t>Grant #</t>
@@ -134,6 +128,18 @@
       </rPr>
       <t>Attachment A</t>
     </r>
+  </si>
+  <si>
+    <t>Appropriation</t>
+  </si>
+  <si>
+    <t>Total Allocated</t>
+  </si>
+  <si>
+    <t>Safe From the Start Evaluation - UIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near West Side </t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -367,6 +373,51 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -390,7 +441,7 @@
     <xf numFmtId="5" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -427,6 +478,13 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -771,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,41 +840,41 @@
     <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -827,22 +885,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <f>(E6)+(G6)</f>
         <v>121500</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f>(D6)</f>
+      <c r="E6" s="22">
         <v>121500</v>
       </c>
-      <c r="G6" s="4">
-        <v>121500</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -852,24 +905,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D14" si="0">(E7)+(G7)</f>
+        <f>(E7)+(G7)</f>
         <v>121500</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F14" si="1">(D7)</f>
+      <c r="E7" s="23">
         <v>121500</v>
       </c>
-      <c r="G7" s="5">
-        <v>121500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>342009</v>
       </c>
@@ -877,22 +925,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D16" si="0">(E8)+(G8)</f>
         <v>75000</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="E8" s="22">
         <v>75000</v>
       </c>
-      <c r="G8" s="4">
-        <v>75000</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -908,16 +951,11 @@
         <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
+      <c r="E9" s="23">
         <v>121500</v>
       </c>
-      <c r="G9" s="5">
-        <v>121500</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -933,16 +971,11 @@
         <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="E10" s="22">
         <v>121500</v>
       </c>
-      <c r="G10" s="4">
-        <v>121500</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -952,24 +985,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
+      <c r="E11" s="23">
         <v>75000</v>
       </c>
-      <c r="G11" s="5">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>342010</v>
       </c>
@@ -977,24 +1005,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
+      <c r="E12" s="22">
         <v>75000</v>
       </c>
-      <c r="G12" s="4">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>342008</v>
       </c>
@@ -1002,22 +1025,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
+      <c r="E13" s="23">
         <v>75000</v>
       </c>
-      <c r="G13" s="5">
-        <v>75000</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -1027,88 +1045,116 @@
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>121500</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
+      <c r="E14" s="22">
         <v>121500</v>
       </c>
-      <c r="G14" s="4">
-        <v>121500</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="18">
+        <v>342012</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>123900</v>
+      </c>
+      <c r="E15" s="24">
+        <v>123900</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12">
-        <f>SUM(D6:D15)</f>
-        <v>907500</v>
-      </c>
-      <c r="E16" s="12"/>
+        <f t="shared" si="0"/>
+        <v>1031400</v>
+      </c>
+      <c r="E16" s="12">
+        <f>SUM(E6:E15)</f>
+        <v>1031400</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="12">
+        <f>(E17)+(G17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12"/>
+        <f>(E18)+(G18)</f>
+        <v>168600</v>
+      </c>
+      <c r="E18" s="12">
+        <v>168600</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
       <c r="C19" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D19" s="12">
-        <f>SUM(D16:D18)</f>
-        <v>907500</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <f>(E19)+(G19)</f>
+        <v>1200000</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E16:E18)</f>
+        <v>1200000</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" ref="F19" si="1">(D19)</f>
+        <v>1200000</v>
+      </c>
+      <c r="G19" s="12">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="20"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g2csWwkkB8GkNW6KninW9g6NvhbqEqCD2WSq/yGg5BEl/mv51nKC1yLGEdpYgd2YRQy3clZn2b0sH40+ZN0j+g==" saltValue="39dTptHSNP1YTgPxzYPBMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8drkrEjelrN/fC5Nvrz4BZ/NrxdgtgUCW74CDssGxZr59dC18+EeksfO29c9+lzK0FpwhoZXcA8fPMMGHRXKmg==" saltValue="yyRqlMUcWP9YBGpKz5XK1w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RSFS SFY20
-June 20, 2019</oddHeader>
+October 17, 2019</oddHeader>
   </headerFooter>
 </worksheet>
 </file>